--- a/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail10 Features.xlsx
+++ b/_experimentalData/_metaDatasets/AMIGOS/savedFeatures/P26_trail10 Features.xlsx
@@ -4222,7 +4222,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z9"/>
+  <dimension ref="A1:X9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4233,29 +4233,27 @@
     <col width="14" bestFit="1" customWidth="1" min="1" max="1"/>
     <col width="21" bestFit="1" customWidth="1" min="2" max="2"/>
     <col width="22" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="19" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="19" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="22" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="22" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="23" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="25" bestFit="1" customWidth="1" min="9" max="9"/>
-    <col width="24" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="22" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="22" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="23" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="25" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="24" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="18" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="18" bestFit="1" customWidth="1" min="10" max="10"/>
     <col width="18" bestFit="1" customWidth="1" min="11" max="11"/>
-    <col width="18" bestFit="1" customWidth="1" min="12" max="12"/>
+    <col width="22" bestFit="1" customWidth="1" min="12" max="12"/>
     <col width="18" bestFit="1" customWidth="1" min="13" max="13"/>
     <col width="22" bestFit="1" customWidth="1" min="14" max="14"/>
-    <col width="18" bestFit="1" customWidth="1" min="15" max="15"/>
+    <col width="22" bestFit="1" customWidth="1" min="15" max="15"/>
     <col width="22" bestFit="1" customWidth="1" min="16" max="16"/>
-    <col width="22" bestFit="1" customWidth="1" min="17" max="17"/>
-    <col width="22" bestFit="1" customWidth="1" min="18" max="18"/>
-    <col width="21" bestFit="1" customWidth="1" min="19" max="19"/>
-    <col width="23" bestFit="1" customWidth="1" min="20" max="20"/>
-    <col width="25" bestFit="1" customWidth="1" min="21" max="21"/>
-    <col width="20" bestFit="1" customWidth="1" min="22" max="22"/>
-    <col width="18" bestFit="1" customWidth="1" min="23" max="23"/>
-    <col width="18" bestFit="1" customWidth="1" min="24" max="24"/>
-    <col width="17" bestFit="1" customWidth="1" min="25" max="25"/>
-    <col width="19" bestFit="1" customWidth="1" min="26" max="26"/>
+    <col width="21" bestFit="1" customWidth="1" min="17" max="17"/>
+    <col width="23" bestFit="1" customWidth="1" min="18" max="18"/>
+    <col width="25" bestFit="1" customWidth="1" min="19" max="19"/>
+    <col width="20" bestFit="1" customWidth="1" min="20" max="20"/>
+    <col width="18" bestFit="1" customWidth="1" min="21" max="21"/>
+    <col width="18" bestFit="1" customWidth="1" min="22" max="22"/>
+    <col width="17" bestFit="1" customWidth="1" min="23" max="23"/>
+    <col width="19" bestFit="1" customWidth="1" min="24" max="24"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4276,115 +4274,105 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>skewness_EDA</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>kurtosis_EDA</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
           <t>signalRange_EDA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>signalArea_EDA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeMean_EDA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativeStdDev_EDA</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>firstDerivativePower_EDA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>higuchi_fd_EDA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>katz_fd_EDA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>ptp_amp_EDA</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivity_EDA</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobility_EDA</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexity_EDA</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariance_EDA</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>hjorthActivityPSD_EDA</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>hjorthMobilityPSD_EDA</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>hjorthComplexityPSD_EDA</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>firstDerivVariancePSD_EDA</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>spectral_entropy_EDA</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>perm_entropy_EDA</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>DFA_EDA</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>num_zerocross_EDA</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>meanFrequency_EDA</t>
         </is>
@@ -4401,72 +4389,66 @@
         <v>1.010308536160186e-06</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.2763129420154333</v>
+        <v>3.126568906769861e-06</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>-1.329459494977941</v>
+        <v>4.947588132569042e-06</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>3.126568906769861e-06</v>
+        <v>0.01718756331610634</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>4.947588132569042e-06</v>
+        <v>0.1508587597530965</v>
       </c>
       <c r="H2" s="2" t="n">
-        <v>0.01718756331610634</v>
+        <v>0.02305114600454254</v>
       </c>
       <c r="I2" s="2" t="n">
-        <v>0.1508587597530965</v>
+        <v>1.438962977557363</v>
       </c>
       <c r="J2" s="2" t="n">
-        <v>0.02305114600454254</v>
+        <v>1.44103347142785</v>
       </c>
       <c r="K2" s="2" t="n">
-        <v>1.359603462246596</v>
+        <v>3.674409504220158</v>
       </c>
       <c r="L2" s="2" t="n">
-        <v>1.44103347142785</v>
+        <v>9.988668247642571e-14</v>
       </c>
       <c r="M2" s="2" t="n">
-        <v>3.674409504220158</v>
+        <v>5303298.798690393</v>
       </c>
       <c r="N2" s="2" t="n">
-        <v>9.988668247642571e-14</v>
+        <v>1.810789909484689e-05</v>
       </c>
       <c r="O2" s="2" t="n">
-        <v>5303298.798690393</v>
+        <v>2.809310761944762</v>
       </c>
       <c r="P2" s="2" t="n">
-        <v>1.810789909484689e-05</v>
+        <v>0.0001806306083422016</v>
       </c>
       <c r="Q2" s="2" t="n">
-        <v>2.809310761944762</v>
+        <v>9.474084985044099</v>
       </c>
       <c r="R2" s="2" t="n">
-        <v>0.0001806306083422016</v>
+        <v>1.560922471806648</v>
       </c>
       <c r="S2" s="2" t="n">
-        <v>9.474084985044099</v>
+        <v>0.01621309385881577</v>
       </c>
       <c r="T2" s="2" t="n">
-        <v>1.560922471806648</v>
+        <v>2.999997717867523</v>
       </c>
       <c r="U2" s="2" t="n">
-        <v>0.01621309385881577</v>
+        <v>0.9251582922922146</v>
       </c>
       <c r="V2" s="2" t="n">
-        <v>2.999997717867523</v>
+        <v>1.931955874953702</v>
       </c>
       <c r="W2" s="2" t="n">
-        <v>0.9251582922922146</v>
+        <v>5</v>
       </c>
       <c r="X2" s="2" t="n">
-        <v>1.931955874953702</v>
-      </c>
-      <c r="Y2" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="2" t="n">
         <v>0.1507353314772979</v>
       </c>
     </row>
@@ -4481,72 +4463,66 @@
         <v>1.001608251403838e-06</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.2465922435290989</v>
+        <v>3.126568906769861e-06</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>-1.308439155821424</v>
+        <v>4.965804153156192e-06</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>3.126568906769861e-06</v>
+        <v>0.01874750356711787</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>4.965804153156192e-06</v>
+        <v>0.1510336126074535</v>
       </c>
       <c r="H3" s="2" t="n">
-        <v>0.01874750356711787</v>
+        <v>0.02316197719760659</v>
       </c>
       <c r="I3" s="2" t="n">
-        <v>0.1510336126074535</v>
+        <v>1.44140776510932</v>
       </c>
       <c r="J3" s="2" t="n">
-        <v>0.02316197719760659</v>
+        <v>1.463710493624889</v>
       </c>
       <c r="K3" s="2" t="n">
-        <v>1.362034532529621</v>
+        <v>3.668516582772759</v>
       </c>
       <c r="L3" s="2" t="n">
-        <v>1.463710493624889</v>
+        <v>1.002078461558318e-13</v>
       </c>
       <c r="M3" s="2" t="n">
-        <v>3.668516582772759</v>
+        <v>5401567.878372797</v>
       </c>
       <c r="N3" s="2" t="n">
-        <v>1.002078461558318e-13</v>
+        <v>1.784701776683436e-05</v>
       </c>
       <c r="O3" s="2" t="n">
-        <v>5401567.878372797</v>
+        <v>2.92375786835879</v>
       </c>
       <c r="P3" s="2" t="n">
-        <v>1.784701776683436e-05</v>
+        <v>0.0001626487488088014</v>
       </c>
       <c r="Q3" s="2" t="n">
-        <v>2.92375786835879</v>
+        <v>9.275513945988882</v>
       </c>
       <c r="R3" s="2" t="n">
-        <v>0.0001626487488088014</v>
+        <v>1.484663060524733</v>
       </c>
       <c r="S3" s="2" t="n">
-        <v>9.275513945988882</v>
+        <v>0.01399351095877374</v>
       </c>
       <c r="T3" s="2" t="n">
-        <v>1.484663060524733</v>
+        <v>3.038116494512251</v>
       </c>
       <c r="U3" s="2" t="n">
-        <v>0.01399351095877374</v>
+        <v>0.9258719998631387</v>
       </c>
       <c r="V3" s="2" t="n">
-        <v>3.038116494512251</v>
+        <v>1.911503404367729</v>
       </c>
       <c r="W3" s="2" t="n">
-        <v>0.9258719998631387</v>
+        <v>7</v>
       </c>
       <c r="X3" s="2" t="n">
-        <v>1.911503404367729</v>
-      </c>
-      <c r="Y3" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z3" s="2" t="n">
         <v>0.1534694974321075</v>
       </c>
     </row>
@@ -4561,72 +4537,66 @@
         <v>9.90827593954836e-07</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.2222565685129107</v>
+        <v>3.126568906769861e-06</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>-1.28042883686893</v>
+        <v>4.984613024341212e-06</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>3.126568906769861e-06</v>
+        <v>0.01872594461793628</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>4.984613024341212e-06</v>
+        <v>0.1527401653626358</v>
       </c>
       <c r="H4" s="2" t="n">
-        <v>0.01872594461793628</v>
+        <v>0.02368004475414002</v>
       </c>
       <c r="I4" s="2" t="n">
-        <v>0.1527401653626358</v>
+        <v>1.436781173900087</v>
       </c>
       <c r="J4" s="2" t="n">
-        <v>0.02368004475414002</v>
+        <v>1.41414307580653</v>
       </c>
       <c r="K4" s="2" t="n">
-        <v>1.357244116178708</v>
+        <v>3.679380976099204</v>
       </c>
       <c r="L4" s="2" t="n">
-        <v>1.41414307580653</v>
+        <v>9.961693691244293e-14</v>
       </c>
       <c r="M4" s="2" t="n">
-        <v>3.679380976099204</v>
+        <v>5418321.160128199</v>
       </c>
       <c r="N4" s="2" t="n">
-        <v>9.961693691244293e-14</v>
+        <v>1.775380305677219e-05</v>
       </c>
       <c r="O4" s="2" t="n">
-        <v>5418321.160128199</v>
+        <v>2.924574375085502</v>
       </c>
       <c r="P4" s="2" t="n">
-        <v>1.775380305677219e-05</v>
+        <v>0.0001486188884808736</v>
       </c>
       <c r="Q4" s="2" t="n">
-        <v>2.924574375085502</v>
+        <v>10.75546367319114</v>
       </c>
       <c r="R4" s="2" t="n">
-        <v>0.0001486188884808736</v>
+        <v>1.146390507684537</v>
       </c>
       <c r="S4" s="2" t="n">
-        <v>10.75546367319114</v>
+        <v>0.01719223284488993</v>
       </c>
       <c r="T4" s="2" t="n">
-        <v>1.146390507684537</v>
+        <v>2.874999847413034</v>
       </c>
       <c r="U4" s="2" t="n">
-        <v>0.01719223284488993</v>
+        <v>0.9267930578061845</v>
       </c>
       <c r="V4" s="2" t="n">
-        <v>2.874999847413034</v>
+        <v>1.904850724378433</v>
       </c>
       <c r="W4" s="2" t="n">
-        <v>0.9267930578061845</v>
+        <v>10</v>
       </c>
       <c r="X4" s="2" t="n">
-        <v>1.904850724378433</v>
-      </c>
-      <c r="Y4" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z4" s="2" t="n">
         <v>0.1664647208490478</v>
       </c>
     </row>
@@ -4641,72 +4611,66 @@
         <v>9.796613745424462e-07</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.2017475271652322</v>
+        <v>3.126568906769861e-06</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>-1.248251052375827</v>
+        <v>5.002462316356656e-06</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>3.126568906769861e-06</v>
+        <v>0.01731913900465175</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>5.002462316356656e-06</v>
+        <v>0.154677735762738</v>
       </c>
       <c r="H5" s="2" t="n">
-        <v>0.01731913900465175</v>
+        <v>0.02422463109886824</v>
       </c>
       <c r="I5" s="2" t="n">
-        <v>0.154677735762738</v>
+        <v>1.413508627399146</v>
       </c>
       <c r="J5" s="2" t="n">
-        <v>0.02422463109886824</v>
+        <v>1.415741571785143</v>
       </c>
       <c r="K5" s="2" t="n">
-        <v>1.332446425662741</v>
+        <v>3.710348186378705</v>
       </c>
       <c r="L5" s="2" t="n">
-        <v>1.415741571785143</v>
+        <v>9.796103558160723e-14</v>
       </c>
       <c r="M5" s="2" t="n">
-        <v>3.710348186378705</v>
+        <v>5517646.750018232</v>
       </c>
       <c r="N5" s="2" t="n">
-        <v>9.796103558160723e-14</v>
+        <v>1.726832979423136e-05</v>
       </c>
       <c r="O5" s="2" t="n">
-        <v>5517646.750018232</v>
+        <v>2.982367465143636</v>
       </c>
       <c r="P5" s="2" t="n">
-        <v>1.726832979423136e-05</v>
+        <v>0.0001559293887893409</v>
       </c>
       <c r="Q5" s="2" t="n">
-        <v>2.982367465143636</v>
+        <v>11.62987838078195</v>
       </c>
       <c r="R5" s="2" t="n">
-        <v>0.0001559293887893409</v>
+        <v>1.114513923139677</v>
       </c>
       <c r="S5" s="2" t="n">
-        <v>11.62987838078195</v>
+        <v>0.02109008464596698</v>
       </c>
       <c r="T5" s="2" t="n">
-        <v>1.114513923139677</v>
+        <v>2.738280801394858</v>
       </c>
       <c r="U5" s="2" t="n">
-        <v>0.02109008464596698</v>
+        <v>0.9232566135298884</v>
       </c>
       <c r="V5" s="2" t="n">
-        <v>2.738280801394858</v>
+        <v>1.901903062462649</v>
       </c>
       <c r="W5" s="2" t="n">
-        <v>0.9232566135298884</v>
+        <v>10</v>
       </c>
       <c r="X5" s="2" t="n">
-        <v>1.901903062462649</v>
-      </c>
-      <c r="Y5" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z5" s="2" t="n">
         <v>0.1696352322132316</v>
       </c>
     </row>
@@ -4721,72 +4685,66 @@
         <v>9.696543923295485e-07</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.1821024517221058</v>
+        <v>3.126568906769861e-06</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>-1.214306509161114</v>
+        <v>5.01833868091301e-06</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>3.126568906769861e-06</v>
+        <v>0.01519453078836557</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>5.01833868091301e-06</v>
+        <v>0.1558792592842433</v>
       </c>
       <c r="H6" s="2" t="n">
-        <v>0.01519453078836557</v>
+        <v>0.02452802407116893</v>
       </c>
       <c r="I6" s="2" t="n">
-        <v>0.1558792592842433</v>
+        <v>1.413528704442717</v>
       </c>
       <c r="J6" s="2" t="n">
-        <v>0.02452802407116893</v>
+        <v>1.404782387988225</v>
       </c>
       <c r="K6" s="2" t="n">
-        <v>1.330503707692619</v>
+        <v>3.680149472801314</v>
       </c>
       <c r="L6" s="2" t="n">
-        <v>1.404782387988225</v>
+        <v>9.957533681177442e-14</v>
       </c>
       <c r="M6" s="2" t="n">
-        <v>3.680149472801314</v>
+        <v>5400326.810906366</v>
       </c>
       <c r="N6" s="2" t="n">
-        <v>9.957533681177442e-14</v>
+        <v>1.762359759379872e-05</v>
       </c>
       <c r="O6" s="2" t="n">
-        <v>5400326.810906366</v>
+        <v>2.903968288972135</v>
       </c>
       <c r="P6" s="2" t="n">
-        <v>1.762359759379872e-05</v>
+        <v>0.0001523193438554892</v>
       </c>
       <c r="Q6" s="2" t="n">
-        <v>2.903968288972135</v>
+        <v>10.99949021334998</v>
       </c>
       <c r="R6" s="2" t="n">
-        <v>0.0001523193438554892</v>
+        <v>1.185676880159421</v>
       </c>
       <c r="S6" s="2" t="n">
-        <v>10.99949021334998</v>
+        <v>0.0184289323380025</v>
       </c>
       <c r="T6" s="2" t="n">
-        <v>1.185676880159421</v>
+        <v>2.933773887384742</v>
       </c>
       <c r="U6" s="2" t="n">
-        <v>0.0184289323380025</v>
+        <v>0.9235802005598548</v>
       </c>
       <c r="V6" s="2" t="n">
-        <v>2.933773887384742</v>
+        <v>1.917110351128607</v>
       </c>
       <c r="W6" s="2" t="n">
-        <v>0.9235802005598548</v>
+        <v>10</v>
       </c>
       <c r="X6" s="2" t="n">
-        <v>1.917110351128607</v>
-      </c>
-      <c r="Y6" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="Z6" s="2" t="n">
         <v>0.1699431561376905</v>
       </c>
     </row>
@@ -4801,72 +4759,66 @@
         <v>9.616546539222232e-07</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>0.1614920367008114</v>
+        <v>3.126568906769861e-06</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>-1.181758852343277</v>
+        <v>5.031874132258371e-06</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>3.126568906769861e-06</v>
+        <v>0.01287095292785544</v>
       </c>
       <c r="G7" s="2" t="n">
-        <v>5.031874132258371e-06</v>
+        <v>0.1562109416019513</v>
       </c>
       <c r="H7" s="2" t="n">
-        <v>0.01287095292785544</v>
+        <v>0.02456609620454314</v>
       </c>
       <c r="I7" s="2" t="n">
-        <v>0.1562109416019513</v>
+        <v>1.382522638924238</v>
       </c>
       <c r="J7" s="2" t="n">
-        <v>0.02456609620454314</v>
+        <v>1.392281084364972</v>
       </c>
       <c r="K7" s="2" t="n">
-        <v>1.307202899440254</v>
+        <v>3.735715841349516</v>
       </c>
       <c r="L7" s="2" t="n">
-        <v>1.392281084364972</v>
+        <v>9.66351294225698e-14</v>
       </c>
       <c r="M7" s="2" t="n">
-        <v>3.735715841349516</v>
+        <v>5618542.172942889</v>
       </c>
       <c r="N7" s="2" t="n">
-        <v>9.66351294225698e-14</v>
+        <v>1.64260017075276e-05</v>
       </c>
       <c r="O7" s="2" t="n">
-        <v>5618542.172942889</v>
+        <v>3.050579326185705</v>
       </c>
       <c r="P7" s="2" t="n">
-        <v>1.64260017075276e-05</v>
+        <v>0.0001546069714903473</v>
       </c>
       <c r="Q7" s="2" t="n">
-        <v>3.050579326185705</v>
+        <v>9.250678345316897</v>
       </c>
       <c r="R7" s="2" t="n">
-        <v>0.0001546069714903473</v>
+        <v>1.533297675500435</v>
       </c>
       <c r="S7" s="2" t="n">
-        <v>9.250678345316897</v>
+        <v>0.0132304992922144</v>
       </c>
       <c r="T7" s="2" t="n">
-        <v>1.533297675500435</v>
+        <v>3.155043073689931</v>
       </c>
       <c r="U7" s="2" t="n">
-        <v>0.0132304992922144</v>
+        <v>0.9189734358447975</v>
       </c>
       <c r="V7" s="2" t="n">
-        <v>3.155043073689931</v>
+        <v>1.903084320526532</v>
       </c>
       <c r="W7" s="2" t="n">
-        <v>0.9189734358447975</v>
+        <v>11</v>
       </c>
       <c r="X7" s="2" t="n">
-        <v>1.903084320526532</v>
-      </c>
-      <c r="Y7" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z7" s="2" t="n">
         <v>0.166137264636335</v>
       </c>
     </row>
@@ -4881,72 +4833,66 @@
         <v>9.556071355717637e-07</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>0.1404878628291515</v>
+        <v>3.126568906769861e-06</v>
       </c>
       <c r="E8" s="2" t="n">
-        <v>-1.153062836123991</v>
+        <v>5.043200213208237e-06</v>
       </c>
       <c r="F8" s="2" t="n">
-        <v>3.126568906769861e-06</v>
+        <v>0.01080095880835635</v>
       </c>
       <c r="G8" s="2" t="n">
-        <v>5.043200213208237e-06</v>
+        <v>0.156471190727392</v>
       </c>
       <c r="H8" s="2" t="n">
-        <v>0.01080095880835635</v>
+        <v>0.02459904947828159</v>
       </c>
       <c r="I8" s="2" t="n">
-        <v>0.156471190727392</v>
+        <v>1.355736600828637</v>
       </c>
       <c r="J8" s="2" t="n">
-        <v>0.02459904947828159</v>
+        <v>1.368749704029482</v>
       </c>
       <c r="K8" s="2" t="n">
-        <v>1.280793822628103</v>
+        <v>3.82013260491344</v>
       </c>
       <c r="L8" s="2" t="n">
-        <v>1.368749704029482</v>
+        <v>9.24114583242158e-14</v>
       </c>
       <c r="M8" s="2" t="n">
-        <v>3.82013260491344</v>
+        <v>5824791.876567932</v>
       </c>
       <c r="N8" s="2" t="n">
-        <v>9.24114583242158e-14</v>
+        <v>1.548977636084766e-05</v>
       </c>
       <c r="O8" s="2" t="n">
-        <v>5824791.876567932</v>
+        <v>3.135354477772959</v>
       </c>
       <c r="P8" s="2" t="n">
-        <v>1.548977636084766e-05</v>
+        <v>0.0001476652180859273</v>
       </c>
       <c r="Q8" s="2" t="n">
-        <v>3.135354477772959</v>
+        <v>8.418228550602821</v>
       </c>
       <c r="R8" s="2" t="n">
-        <v>0.0001476652180859273</v>
+        <v>1.752039750631068</v>
       </c>
       <c r="S8" s="2" t="n">
-        <v>8.418228550602821</v>
+        <v>0.01046452779907274</v>
       </c>
       <c r="T8" s="2" t="n">
-        <v>1.752039750631068</v>
+        <v>3.238661107101893</v>
       </c>
       <c r="U8" s="2" t="n">
-        <v>0.01046452779907274</v>
+        <v>0.9157102141560325</v>
       </c>
       <c r="V8" s="2" t="n">
-        <v>3.238661107101893</v>
+        <v>1.939253380374947</v>
       </c>
       <c r="W8" s="2" t="n">
-        <v>0.9157102141560325</v>
+        <v>11</v>
       </c>
       <c r="X8" s="2" t="n">
-        <v>1.939253380374947</v>
-      </c>
-      <c r="Y8" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="Z8" s="2" t="n">
         <v>0.1687806322086909</v>
       </c>
     </row>
@@ -4961,72 +4907,66 @@
         <v>9.509642912715577e-07</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>0.1209936895480844</v>
+        <v>3.126568906769861e-06</v>
       </c>
       <c r="E9" s="2" t="n">
-        <v>-1.128473637103637</v>
+        <v>5.052571201924128e-06</v>
       </c>
       <c r="F9" s="2" t="n">
-        <v>3.126568906769861e-06</v>
+        <v>0.008963428171880476</v>
       </c>
       <c r="G9" s="2" t="n">
-        <v>5.052571201924128e-06</v>
+        <v>0.1568658323094541</v>
       </c>
       <c r="H9" s="2" t="n">
-        <v>0.008963428171880476</v>
+        <v>0.02468688188423552</v>
       </c>
       <c r="I9" s="2" t="n">
-        <v>0.1568658323094541</v>
+        <v>1.341231671176946</v>
       </c>
       <c r="J9" s="2" t="n">
-        <v>0.02468688188423552</v>
+        <v>1.344814940796222</v>
       </c>
       <c r="K9" s="2" t="n">
-        <v>1.267925049673102</v>
+        <v>4.167683328092009</v>
       </c>
       <c r="L9" s="2" t="n">
-        <v>1.344814940796222</v>
+        <v>7.497264596230499e-14</v>
       </c>
       <c r="M9" s="2" t="n">
-        <v>4.167683328092009</v>
+        <v>7214440.505263614</v>
       </c>
       <c r="N9" s="2" t="n">
-        <v>7.497264596230499e-14</v>
+        <v>1.238342421488457e-05</v>
       </c>
       <c r="O9" s="2" t="n">
-        <v>7214440.505263614</v>
+        <v>3.902187658192722</v>
       </c>
       <c r="P9" s="2" t="n">
-        <v>1.238342421488457e-05</v>
+        <v>0.0001277426935615039</v>
       </c>
       <c r="Q9" s="2" t="n">
-        <v>3.902187658192722</v>
+        <v>9.355132389031237</v>
       </c>
       <c r="R9" s="2" t="n">
-        <v>0.0001277426935615039</v>
+        <v>1.200496812828136</v>
       </c>
       <c r="S9" s="2" t="n">
-        <v>9.355132389031237</v>
+        <v>0.01117984918403024</v>
       </c>
       <c r="T9" s="2" t="n">
-        <v>1.200496812828136</v>
+        <v>3.064619971997388</v>
       </c>
       <c r="U9" s="2" t="n">
-        <v>0.01117984918403024</v>
+        <v>0.9146867914947642</v>
       </c>
       <c r="V9" s="2" t="n">
-        <v>3.064619971997388</v>
+        <v>1.933309413252785</v>
       </c>
       <c r="W9" s="2" t="n">
-        <v>0.9146867914947642</v>
+        <v>12</v>
       </c>
       <c r="X9" s="2" t="n">
-        <v>1.933309413252785</v>
-      </c>
-      <c r="Y9" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z9" s="2" t="n">
         <v>0.1832941033312877</v>
       </c>
     </row>
@@ -5403,7 +5343,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.309222775695523</v>
+        <v>1.308578633334574</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.514318906249373</v>
@@ -5492,7 +5432,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.278915735426049</v>
+        <v>1.266954089540175</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.457051726458803</v>
@@ -5581,7 +5521,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.394741101735944</v>
+        <v>1.392844342596499</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>2.084451643130518</v>
@@ -5670,7 +5610,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.415810355610734</v>
+        <v>1.416404117010178</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.500188082032711</v>
@@ -5759,7 +5699,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.438852936923722</v>
+        <v>1.438003638371477</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.539603640694307</v>
@@ -5848,7 +5788,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.440289366256532</v>
+        <v>1.436950287824312</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.545827614984473</v>
@@ -5937,7 +5877,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.435645682840861</v>
+        <v>1.431622149883508</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.447980028076171</v>
@@ -6026,7 +5966,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.455782986995743</v>
+        <v>1.448607979850003</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.668490403197663</v>
@@ -6115,7 +6055,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.461517231167893</v>
+        <v>1.457643201672413</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.884631345928792</v>
@@ -6204,7 +6144,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.479151529555707</v>
+        <v>1.479409390373001</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.374534753284064</v>
@@ -6293,7 +6233,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.48307168290244</v>
+        <v>1.480227298018574</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.622095407430395</v>
@@ -6382,7 +6322,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.486989230547968</v>
+        <v>1.484954489849791</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.508095534549924</v>
@@ -6471,7 +6411,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.482014098664421</v>
+        <v>1.484275157905516</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.262954047734747</v>
@@ -6560,7 +6500,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.424856411239957</v>
+        <v>1.379952153943056</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.604717767892319</v>
@@ -6649,7 +6589,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.441224021706787</v>
+        <v>1.402738361310063</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.628704194457948</v>
@@ -6738,7 +6678,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.443280039262977</v>
+        <v>1.408314927080576</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.670292888427572</v>
@@ -6827,7 +6767,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.440671297673357</v>
+        <v>1.404047660001196</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.675565145365132</v>
@@ -6916,7 +6856,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.439574554040747</v>
+        <v>1.404527429331479</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.676338634958435</v>
@@ -7005,7 +6945,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.445975489432706</v>
+        <v>1.40987271994033</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.674551849902866</v>
@@ -7094,7 +7034,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.4325325273719</v>
+        <v>1.395153303246388</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.684813448218208</v>
@@ -7183,7 +7123,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.421106827884276</v>
+        <v>1.385870844915106</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.6658597656187</v>
@@ -7272,7 +7212,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.418048326382908</v>
+        <v>1.383022549974731</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.691034672515116</v>
@@ -7361,7 +7301,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.426974375141144</v>
+        <v>1.396498297042772</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.710295243936248</v>
@@ -7450,7 +7390,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.426992547247502</v>
+        <v>1.402240141202683</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.743713508088638</v>
@@ -7539,7 +7479,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.418962543594453</v>
+        <v>1.393434787653565</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.746159029180208</v>
@@ -7628,7 +7568,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.416876740607034</v>
+        <v>1.390375071044523</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.73710708081883</v>
@@ -7717,7 +7657,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.414059462425587</v>
+        <v>1.386832885051041</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.731090999451258</v>
@@ -7806,7 +7746,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.41949355025521</v>
+        <v>1.388658847545459</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.689084609962381</v>
@@ -7895,7 +7835,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.456189366510846</v>
+        <v>1.454075792420414</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.074814253262646</v>
@@ -7984,7 +7924,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.448315340562915</v>
+        <v>1.447684097362718</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.109113843954839</v>
@@ -8073,7 +8013,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.414104088207847</v>
+        <v>1.412963494134314</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.319657339838578</v>
@@ -8162,7 +8102,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.4057100293953</v>
+        <v>1.406688717848324</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.27412245017326</v>
@@ -8251,7 +8191,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.401019952309722</v>
+        <v>1.39722186253166</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.372425100124013</v>
@@ -8340,7 +8280,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.381529431889801</v>
+        <v>1.377889474209345</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.283601118527188</v>
@@ -8429,7 +8369,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.396066195672359</v>
+        <v>1.395359312892205</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.128540869988768</v>
@@ -8518,7 +8458,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.406378638536539</v>
+        <v>1.405272648999406</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.444902311047156</v>
@@ -8607,7 +8547,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.418694931104055</v>
+        <v>1.413722439938872</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.376988362437746</v>
@@ -8696,7 +8636,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.41122244136596</v>
+        <v>1.395325297124265</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.208853862834443</v>
@@ -8785,7 +8725,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.381765153115219</v>
+        <v>1.356983509961303</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.501936773974768</v>
@@ -8874,7 +8814,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.380585561621972</v>
+        <v>1.359301212470984</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.632312358222779</v>
@@ -8963,7 +8903,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.380633657119954</v>
+        <v>1.35786836898736</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.764544313924525</v>
@@ -9052,7 +8992,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.378009096370677</v>
+        <v>1.358873556783588</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.495937569844681</v>
@@ -9141,7 +9081,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.376982526445137</v>
+        <v>1.354138848210155</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.523558276665884</v>
@@ -9230,7 +9170,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.366700609304767</v>
+        <v>1.337102139578328</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.700036617290983</v>
@@ -9319,7 +9259,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.350957820451443</v>
+        <v>1.32075126383437</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.429344482493907</v>
@@ -9408,7 +9348,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.367895564221984</v>
+        <v>1.338896714831321</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.696850491829215</v>
@@ -9497,7 +9437,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.366154494151993</v>
+        <v>1.337020321619914</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.359381143704621</v>
@@ -9586,7 +9526,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.362969880143402</v>
+        <v>1.331899259320723</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.267766087211859</v>
@@ -9675,7 +9615,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.376940389919456</v>
+        <v>1.349202654185964</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.425085994789461</v>
@@ -9764,7 +9704,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.386156618210093</v>
+        <v>1.359507627468688</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.455596355646262</v>
@@ -9853,7 +9793,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.392293154273908</v>
+        <v>1.369494637628907</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.562699718874611</v>
@@ -9942,7 +9882,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.382770546666114</v>
+        <v>1.358629743457652</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.365371895228031</v>
@@ -10031,7 +9971,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.394341092585508</v>
+        <v>1.371509989129344</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.506397438916456</v>
@@ -10317,7 +10257,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.332529001165134</v>
+        <v>1.345846043922638</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.587416540540018</v>
@@ -10406,7 +10346,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.249674855749874</v>
+        <v>1.235992514222131</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.508328310804044</v>
@@ -10495,7 +10435,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.435544786036333</v>
+        <v>1.442120778143978</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.558545587124895</v>
@@ -10584,7 +10524,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.562408226643464</v>
+        <v>1.553356453653869</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.777678683715063</v>
@@ -10673,7 +10613,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.574471609196179</v>
+        <v>1.565088023172922</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.597779169170397</v>
@@ -10762,7 +10702,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.574055850209167</v>
+        <v>1.566139489148784</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.921460862398619</v>
@@ -10851,7 +10791,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.586919241715196</v>
+        <v>1.573667942081961</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.639484202520908</v>
@@ -10940,7 +10880,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.605733717009008</v>
+        <v>1.583903853254113</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.737967703732541</v>
@@ -11029,7 +10969,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.579438839760948</v>
+        <v>1.557349554112958</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.823268248710277</v>
@@ -11118,7 +11058,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.578164817053422</v>
+        <v>1.559397366608091</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.871245529691764</v>
@@ -11207,7 +11147,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.574135414938055</v>
+        <v>1.560021293120722</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.948128523238077</v>
@@ -11296,7 +11236,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.574918710409845</v>
+        <v>1.568245293414607</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.823075006795488</v>
@@ -11385,7 +11325,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.567179934250062</v>
+        <v>1.550864485543453</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.94452036145846</v>
@@ -11474,7 +11414,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.585272531618999</v>
+        <v>1.500275146613213</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.056935750598866</v>
@@ -11563,7 +11503,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.628062518659561</v>
+        <v>1.556245569642657</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.060743484505603</v>
@@ -11652,7 +11592,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.636641952277892</v>
+        <v>1.578986415444655</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.274186169854841</v>
@@ -11741,7 +11681,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.620414390612787</v>
+        <v>1.567861410951685</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.339027986546448</v>
@@ -11830,7 +11770,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.625292663665417</v>
+        <v>1.577044069817944</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.389061170062369</v>
@@ -11919,7 +11859,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.636138798559099</v>
+        <v>1.585271723612074</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.335461100005636</v>
@@ -12008,7 +11948,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.637017334157753</v>
+        <v>1.587148311323797</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.374907841378792</v>
@@ -12097,7 +12037,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.640117675519864</v>
+        <v>1.58769501130044</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.340277054535078</v>
@@ -12186,7 +12126,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.643010653320447</v>
+        <v>1.591765383309595</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.42422373194263</v>
@@ -12275,7 +12215,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.662784644388761</v>
+        <v>1.625392348134227</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.31778781326593</v>
@@ -12364,7 +12304,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.578126518782811</v>
+        <v>1.573563134670354</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.196792143759597</v>
@@ -12453,7 +12393,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.571442584198993</v>
+        <v>1.570691050980631</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.199130671111306</v>
@@ -12542,7 +12482,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.568234258004995</v>
+        <v>1.569821933615742</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.205737616882798</v>
@@ -12631,7 +12571,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.565900699515152</v>
+        <v>1.564508020360762</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.215154455925611</v>
@@ -12720,7 +12660,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.566619338624857</v>
+        <v>1.569659440105284</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.210938678684023</v>
@@ -12809,7 +12749,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.562073935320244</v>
+        <v>1.603787895616815</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.142043524743938</v>
@@ -12898,7 +12838,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.535711337540208</v>
+        <v>1.57694530264233</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.040680816059062</v>
@@ -12987,7 +12927,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.514264422549534</v>
+        <v>1.554631372014912</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.040683235691034</v>
@@ -13076,7 +13016,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.519580303907454</v>
+        <v>1.56173852222411</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.002498847998327</v>
@@ -13165,7 +13105,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.503737564127741</v>
+        <v>1.550289582683506</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.987796381838015</v>
@@ -13254,7 +13194,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.495734781470228</v>
+        <v>1.541478040495969</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.001518377312263</v>
@@ -13343,7 +13283,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.472800902035998</v>
+        <v>1.521755880338227</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.985154018801613</v>
@@ -13432,7 +13372,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.470416404471732</v>
+        <v>1.523868330620252</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.992197076250949</v>
@@ -13521,7 +13461,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.463947308258305</v>
+        <v>1.517207761962955</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.965992617905366</v>
@@ -13610,7 +13550,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.434798396069443</v>
+        <v>1.474899913407141</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.777073798609035</v>
@@ -13699,7 +13639,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.482716916630406</v>
+        <v>1.505196758063258</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.256095379629243</v>
@@ -13788,7 +13728,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.49951796960079</v>
+        <v>1.519736731293946</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.876831515273303</v>
@@ -13877,7 +13817,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.50091501001972</v>
+        <v>1.517734571149443</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.604283560608343</v>
@@ -13966,7 +13906,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.481730456046698</v>
+        <v>1.510934765214738</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.617434266154982</v>
@@ -14055,7 +13995,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.473776905430698</v>
+        <v>1.494629645556134</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.795088745944854</v>
@@ -14144,7 +14084,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.470284595594163</v>
+        <v>1.487126038264041</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.670457693732907</v>
@@ -14233,7 +14173,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.48794631122476</v>
+        <v>1.501750037184816</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.610656355862246</v>
@@ -14322,7 +14262,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.49909262558376</v>
+        <v>1.509919400303239</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.732567848962202</v>
@@ -14411,7 +14351,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.472355495452093</v>
+        <v>1.478592070490425</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.514989518291172</v>
@@ -14500,7 +14440,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.457703941820931</v>
+        <v>1.449397629908114</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.877160131307438</v>
@@ -14589,7 +14529,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.45875872567597</v>
+        <v>1.454237026991412</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.331422557238015</v>
@@ -14678,7 +14618,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.475164469622881</v>
+        <v>1.471236547976818</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.839173232602691</v>
@@ -14767,7 +14707,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.460043257313903</v>
+        <v>1.454904158854697</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.694355335535893</v>
@@ -14856,7 +14796,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.451526293127641</v>
+        <v>1.448112554371316</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.74687429657889</v>
@@ -14945,7 +14885,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.463230947533795</v>
+        <v>1.460288365237232</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.653985429918636</v>
@@ -15231,7 +15171,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.452041530027499</v>
+        <v>1.477435490395356</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.757905772333395</v>
@@ -15320,7 +15260,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.385871395271184</v>
+        <v>1.389708863360578</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.610137176962138</v>
@@ -15409,7 +15349,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.536728252426495</v>
+        <v>1.482270891536058</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.821082626475366</v>
@@ -15498,7 +15438,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.567479071906317</v>
+        <v>1.513177046460489</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.935923288199151</v>
@@ -15587,7 +15527,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.572847099319695</v>
+        <v>1.518696513404252</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.266867681426942</v>
@@ -15676,7 +15616,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.574420014204203</v>
+        <v>1.519300209728648</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.973534075536713</v>
@@ -15765,7 +15705,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.582205380907468</v>
+        <v>1.518593901541674</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.531865722401226</v>
@@ -15854,7 +15794,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.58322195832127</v>
+        <v>1.526492585553675</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.18385091058771</v>
@@ -15943,7 +15883,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.591287829271246</v>
+        <v>1.534911096359682</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.948574057793283</v>
@@ -16032,7 +15972,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.604490543045259</v>
+        <v>1.547252985085704</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.287866996460044</v>
@@ -16121,7 +16061,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.595047021079095</v>
+        <v>1.5452721269214</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.306184661173879</v>
@@ -16210,7 +16150,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.605534187288243</v>
+        <v>1.556489195734262</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.526197838340372</v>
@@ -16299,7 +16239,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.613909871030332</v>
+        <v>1.562889133747158</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.360771257964023</v>
@@ -16388,7 +16328,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.601163430158266</v>
+        <v>1.517910309513368</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.203686203518607</v>
@@ -16477,7 +16417,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.634079374570181</v>
+        <v>1.555361032390437</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.269172100295281</v>
@@ -16566,7 +16506,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.664231235193873</v>
+        <v>1.592944772213072</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.374791622979068</v>
@@ -16655,7 +16595,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.656145647307623</v>
+        <v>1.595266912646838</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.312730047222916</v>
@@ -16744,7 +16684,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.658482834603567</v>
+        <v>1.601374067073326</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.403054597993559</v>
@@ -16833,7 +16773,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.652756017501894</v>
+        <v>1.595605841795412</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.389068974114605</v>
@@ -16922,7 +16862,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.645112228840319</v>
+        <v>1.586754851562955</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.340801794138715</v>
@@ -17011,7 +16951,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.635347600825888</v>
+        <v>1.579325616937462</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.448795719999779</v>
@@ -17100,7 +17040,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.639802134803473</v>
+        <v>1.587229898359797</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.425694904521097</v>
@@ -17189,7 +17129,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.699906880359353</v>
+        <v>1.656985421399845</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.602960076746971</v>
@@ -17278,7 +17218,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.676632128857929</v>
+        <v>1.652895528335622</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.735792557897338</v>
@@ -17367,7 +17307,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.673598396928151</v>
+        <v>1.652515169228596</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.717686295638354</v>
@@ -17456,7 +17396,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.679124563447067</v>
+        <v>1.654565146140578</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.745557577040147</v>
@@ -17545,7 +17485,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.680634077156776</v>
+        <v>1.653111096327476</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.684490148623508</v>
@@ -17634,7 +17574,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.682143495045954</v>
+        <v>1.652773104747069</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.582307225140382</v>
@@ -17723,7 +17663,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.704196858722264</v>
+        <v>1.705317430065729</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.786433285787412</v>
@@ -17812,7 +17752,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.689944017340686</v>
+        <v>1.691669768929954</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.796312139842895</v>
@@ -17901,7 +17841,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.668325838678689</v>
+        <v>1.666164905088323</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.669588420716089</v>
@@ -17990,7 +17930,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.668358663671719</v>
+        <v>1.662767986949646</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.74557101735004</v>
@@ -18079,7 +18019,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.667776178327087</v>
+        <v>1.661603269311622</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.615254098043675</v>
@@ -18168,7 +18108,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.670563932004443</v>
+        <v>1.664494211811286</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.581109420167178</v>
@@ -18257,7 +18197,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.680194009306347</v>
+        <v>1.676152677083834</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.628208898186827</v>
@@ -18346,7 +18286,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.68318496097839</v>
+        <v>1.670989453826375</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.590955555877989</v>
@@ -18435,7 +18375,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.622301711667755</v>
+        <v>1.616887870195293</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.595437641969428</v>
@@ -18524,7 +18464,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.556033830656901</v>
+        <v>1.535282857845583</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.382879101049657</v>
@@ -18613,7 +18553,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.507260729757292</v>
+        <v>1.466547925499084</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.324910606417947</v>
@@ -18702,7 +18642,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.491521793972084</v>
+        <v>1.45240974388522</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.2801606704093</v>
@@ -18791,7 +18731,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.488542541891975</v>
+        <v>1.451193634282118</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.234320119094173</v>
@@ -18880,7 +18820,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.480044706670146</v>
+        <v>1.447221285324714</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.242207169711265</v>
@@ -18969,7 +18909,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.475756753103344</v>
+        <v>1.446763189535786</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.254129057826151</v>
@@ -19058,7 +18998,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.460909498206256</v>
+        <v>1.431700816054688</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.28049337687462</v>
@@ -19147,7 +19087,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.459961637050117</v>
+        <v>1.426408139518194</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.273543260026841</v>
@@ -19236,7 +19176,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.463849892785484</v>
+        <v>1.432763210349394</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.309253569614863</v>
@@ -19325,7 +19265,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.440813555411861</v>
+        <v>1.409035399331201</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.236404705643759</v>
@@ -19414,7 +19354,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.441197650117398</v>
+        <v>1.411567516515702</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.255527524460622</v>
@@ -19503,7 +19443,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.445608447711977</v>
+        <v>1.417403211233226</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.259236819483835</v>
@@ -19592,7 +19532,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.445308588892636</v>
+        <v>1.412872210801758</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.31045644865639</v>
@@ -19681,7 +19621,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.456641580378263</v>
+        <v>1.429242082853823</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.37160560827712</v>
@@ -19770,7 +19710,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.502417637213081</v>
+        <v>1.470893823568373</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.387059215121484</v>
@@ -19859,7 +19799,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.520909209523941</v>
+        <v>1.486326391080117</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.165167578446663</v>
@@ -20145,7 +20085,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.409313896206579</v>
+        <v>1.429567593163544</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.838503228903382</v>
@@ -20234,7 +20174,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.378537279213494</v>
+        <v>1.36956669613779</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.694403288076056</v>
@@ -20323,7 +20263,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.502142616621051</v>
+        <v>1.475390772342586</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.925208689238485</v>
@@ -20412,7 +20352,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.53359029422597</v>
+        <v>1.502380663801491</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.720224181911752</v>
@@ -20501,7 +20441,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.549117455761446</v>
+        <v>1.513382764253509</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>3.119328014879188</v>
@@ -20590,7 +20530,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.5388063788463</v>
+        <v>1.50128933805441</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>3.205779607204774</v>
@@ -20679,7 +20619,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.541923934690692</v>
+        <v>1.497240615989275</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>3.025485527739852</v>
@@ -20768,7 +20708,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.543284105157909</v>
+        <v>1.501787896145477</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.145146256442637</v>
@@ -20857,7 +20797,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.546185053554729</v>
+        <v>1.501069420764473</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.049816870760831</v>
@@ -20946,7 +20886,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.558847869509427</v>
+        <v>1.508846656892071</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.83312328018068</v>
@@ -21035,7 +20975,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.567698382382259</v>
+        <v>1.513973291030154</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.01946066104819</v>
@@ -21124,7 +21064,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.57524829953217</v>
+        <v>1.519151894303009</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.158076117066637</v>
@@ -21213,7 +21153,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.592135365420692</v>
+        <v>1.533218610275908</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.91625372105553</v>
@@ -21302,7 +21242,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.592763671736964</v>
+        <v>1.492825599455384</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.165874906491239</v>
@@ -21391,7 +21331,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.62448630141867</v>
+        <v>1.526813487447127</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.291335718514262</v>
@@ -21480,7 +21420,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.653088239123805</v>
+        <v>1.563247864336738</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.317009155493224</v>
@@ -21569,7 +21509,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.632064390924953</v>
+        <v>1.545711018843491</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.329566090497267</v>
@@ -21658,7 +21598,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.629467168009455</v>
+        <v>1.546317436602723</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.34106940270562</v>
@@ -21747,7 +21687,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.64017344518758</v>
+        <v>1.557042359883921</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.332759625863011</v>
@@ -21836,7 +21776,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.637966252268009</v>
+        <v>1.555546767234516</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.31038306394197</v>
@@ -21925,7 +21865,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.635678408430818</v>
+        <v>1.555653659550891</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.337264626904806</v>
@@ -22014,7 +21954,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.647481022996917</v>
+        <v>1.570206687207251</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.391322260541614</v>
@@ -22103,7 +22043,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.696314542591306</v>
+        <v>1.6338109864573</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>2.580776930696567</v>
@@ -22192,7 +22132,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.677820049561467</v>
+        <v>1.636765075553814</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.612550075218392</v>
@@ -22281,7 +22221,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.668899766320603</v>
+        <v>1.629702007829032</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.643312575672598</v>
@@ -22370,7 +22310,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.662239271658644</v>
+        <v>1.624902440508752</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.602649409860719</v>
@@ -22459,7 +22399,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.659455584624068</v>
+        <v>1.615445173938276</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.63095785362266</v>
@@ -22548,7 +22488,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.656893454981447</v>
+        <v>1.611427755434187</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>2.505650311461419</v>
@@ -22637,7 +22577,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.67166903069555</v>
+        <v>1.664120821851072</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.80083270122404</v>
@@ -22726,7 +22666,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.651066196498096</v>
+        <v>1.644590076042665</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.724756368470366</v>
@@ -22815,7 +22755,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.624274669042567</v>
+        <v>1.615331717385696</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.643510706479888</v>
@@ -22904,7 +22844,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.62396360466121</v>
+        <v>1.617198006850238</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.541605805169679</v>
@@ -22993,7 +22933,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.627004991525461</v>
+        <v>1.612303437292583</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.71559108059959</v>
@@ -23082,7 +23022,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.614274579523606</v>
+        <v>1.595242728461145</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.715914565006519</v>
@@ -23171,7 +23111,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.616439915177127</v>
+        <v>1.599237537350747</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.620616207491409</v>
@@ -23260,7 +23200,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.625804004697084</v>
+        <v>1.609069416518383</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.715692523157931</v>
@@ -23349,7 +23289,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.621285313729109</v>
+        <v>1.600218130640466</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.693466132171178</v>
@@ -23438,7 +23378,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.568696985520357</v>
+        <v>1.533328950906865</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>2.276823023613056</v>
@@ -23527,7 +23467,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.561163765662151</v>
+        <v>1.502217175585068</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.884781181732333</v>
@@ -23616,7 +23556,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.557598439987886</v>
+        <v>1.500777922174896</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.990690229602005</v>
@@ -23705,7 +23645,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.557997832035511</v>
+        <v>1.500097164601959</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>3.162850184544225</v>
@@ -23794,7 +23734,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.554173562154254</v>
+        <v>1.50822376573958</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>3.190139798542168</v>
@@ -23883,7 +23823,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.555229772638105</v>
+        <v>1.508351469515651</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>3.469094304355615</v>
@@ -23972,7 +23912,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.535721552361901</v>
+        <v>1.481852757583505</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>3.294089091433758</v>
@@ -24061,7 +24001,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.532040856301701</v>
+        <v>1.477872178947158</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.18080513047515</v>
@@ -24150,7 +24090,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.540249698930331</v>
+        <v>1.479788702094901</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>3.006857560574853</v>
@@ -24239,7 +24179,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.504445021309514</v>
+        <v>1.450026587116234</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.469563136248353</v>
@@ -24328,7 +24268,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.487764967669077</v>
+        <v>1.445622152590566</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.396184544102244</v>
@@ -24417,7 +24357,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.496746970608732</v>
+        <v>1.463439581870212</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.386072906317071</v>
@@ -24506,7 +24446,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.500148744645032</v>
+        <v>1.46304216294682</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.394997054632301</v>
@@ -24595,7 +24535,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.497319492307105</v>
+        <v>1.461506025055912</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.39713381436616</v>
@@ -24684,7 +24624,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.498484386979441</v>
+        <v>1.46777233855625</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.48344646672988</v>
@@ -24773,7 +24713,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.505620026978238</v>
+        <v>1.469393847109118</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.395471745003725</v>
@@ -25059,7 +24999,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.194443810247828</v>
+        <v>1.168378169314473</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.628606968817675</v>
@@ -25148,7 +25088,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.200109381639533</v>
+        <v>1.169556664014668</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.548078933383053</v>
@@ -25237,7 +25177,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.304209592746141</v>
+        <v>1.299434173291275</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.326534999117999</v>
@@ -25326,7 +25266,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.48488733551862</v>
+        <v>1.478444696098086</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>1.925349752376678</v>
@@ -25415,7 +25355,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.516069186051431</v>
+        <v>1.501311473621242</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.085845346643537</v>
@@ -25504,7 +25444,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.533119526884529</v>
+        <v>1.515398469293565</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.124869787093378</v>
@@ -25593,7 +25533,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.550391270123665</v>
+        <v>1.534765535445444</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.099215429071823</v>
@@ -25682,7 +25622,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.663461820542633</v>
+        <v>1.621369608832406</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>3.104330783594951</v>
@@ -25771,7 +25711,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.673126430328781</v>
+        <v>1.632994916185981</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>3.011846768170326</v>
@@ -25860,7 +25800,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.678480819151725</v>
+        <v>1.639558718508486</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>3.019957530536844</v>
@@ -25949,7 +25889,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.678096156980475</v>
+        <v>1.640015369825621</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>3.278994106211762</v>
@@ -26038,7 +25978,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.674732409980433</v>
+        <v>1.637860173026275</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>3.179058476143419</v>
@@ -26127,7 +26067,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.672326936617653</v>
+        <v>1.623951983004966</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>3.390624401471617</v>
@@ -26216,7 +26156,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.633937533242364</v>
+        <v>1.561228947009125</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>2.216070368574667</v>
@@ -26305,7 +26245,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.575857658764378</v>
+        <v>1.539968327116943</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>2.019900599380114</v>
@@ -26394,7 +26334,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.596208830580487</v>
+        <v>1.567114126725586</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>2.14444706193736</v>
@@ -26483,7 +26423,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.583443969498356</v>
+        <v>1.558854686477551</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>2.171801124471269</v>
@@ -26572,7 +26512,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.5927133710571</v>
+        <v>1.572984820311361</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>2.218243853046052</v>
@@ -26661,7 +26601,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.584062022814936</v>
+        <v>1.57001637357356</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>2.229105511343926</v>
@@ -26750,7 +26690,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.575257224148996</v>
+        <v>1.566411133478601</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>2.215301679043638</v>
@@ -26839,7 +26779,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.520616946596067</v>
+        <v>1.513950220487277</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>2.037464826356902</v>
@@ -26928,7 +26868,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.419221462322</v>
+        <v>1.43069538518801</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>2.082577843823854</v>
@@ -27017,7 +26957,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.432456293355473</v>
+        <v>1.447393207889916</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.965098088121395</v>
@@ -27106,7 +27046,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.342654313622993</v>
+        <v>1.366217084493515</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>1.775065215655155</v>
@@ -27195,7 +27135,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.335662682362945</v>
+        <v>1.357831218869097</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>1.788223450040152</v>
@@ -27284,7 +27224,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.338587978323569</v>
+        <v>1.361425384352835</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>1.797561364314361</v>
@@ -27373,7 +27313,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.339071702204779</v>
+        <v>1.362206587530779</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>1.796194184907614</v>
@@ -27462,7 +27402,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.316800897382591</v>
+        <v>1.338841688560395</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.817431020095957</v>
@@ -27551,7 +27491,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.310156517036452</v>
+        <v>1.342063987996985</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>1.844126702304696</v>
@@ -27640,7 +27580,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.3046015246008</v>
+        <v>1.333885571456016</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>1.789486804619371</v>
@@ -27729,7 +27669,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.28593470001849</v>
+        <v>1.310116589018497</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>1.743971977424539</v>
@@ -27818,7 +27758,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.27453465220117</v>
+        <v>1.301861433970978</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>1.746676581549462</v>
@@ -27907,7 +27847,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.262927175635962</v>
+        <v>1.288418700348462</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>1.729621900802671</v>
@@ -27996,7 +27936,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.262966553737997</v>
+        <v>1.287895508120333</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>1.745828541461747</v>
@@ -28085,7 +28025,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.264444181740333</v>
+        <v>1.287898604660258</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>1.716983858088214</v>
@@ -28174,7 +28114,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.293786032595764</v>
+        <v>1.31552990652851</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>1.603146456554899</v>
@@ -28263,7 +28203,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.321703340452292</v>
+        <v>1.34449326299525</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>1.674183785608707</v>
@@ -28352,7 +28292,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.316645158877977</v>
+        <v>1.320322462980061</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.592469981912369</v>
@@ -28441,7 +28381,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.417728602972445</v>
+        <v>1.420875407184507</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>1.837155615721244</v>
@@ -28530,7 +28470,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.430562257937669</v>
+        <v>1.43463281411944</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.049881537803959</v>
@@ -28619,7 +28559,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.432917545350164</v>
+        <v>1.437573843907181</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.013960916744424</v>
@@ -28708,7 +28648,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.43640292289926</v>
+        <v>1.438059968245891</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.005700955267879</v>
@@ -28797,7 +28737,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.543058896312155</v>
+        <v>1.540495280996109</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.644451563928516</v>
@@ -28886,7 +28826,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.54173541457138</v>
+        <v>1.543036515323952</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.865496065967899</v>
@@ -28975,7 +28915,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.54503551798438</v>
+        <v>1.541863569564675</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>3.006834841029739</v>
@@ -29064,7 +29004,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.552885816706436</v>
+        <v>1.550822241507772</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.500532509800975</v>
@@ -29153,7 +29093,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.569531717527613</v>
+        <v>1.564008111701251</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.73867355210956</v>
@@ -29242,7 +29182,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.56505459387813</v>
+        <v>1.545571329354975</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.76591184790442</v>
@@ -29331,7 +29271,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.551143111809546</v>
+        <v>1.53254968484384</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.830488336044613</v>
@@ -29420,7 +29360,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.562237783769512</v>
+        <v>1.543792912327221</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.850629152591453</v>
@@ -29509,7 +29449,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.54371453383848</v>
+        <v>1.534312368558409</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.773518009109961</v>
@@ -29598,7 +29538,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.53611894293825</v>
+        <v>1.526755616007668</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.68622922577417</v>
@@ -29687,7 +29627,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.537297153380381</v>
+        <v>1.532909745995922</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.783944224427142</v>
@@ -29973,7 +29913,7 @@
         <v>15</v>
       </c>
       <c r="B2" s="2" t="n">
-        <v>1.293049635561779</v>
+        <v>1.28462907974842</v>
       </c>
       <c r="C2" s="2" t="n">
         <v>1.675754872247872</v>
@@ -30062,7 +30002,7 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="n">
-        <v>1.263979775211497</v>
+        <v>1.240549777306488</v>
       </c>
       <c r="C3" s="2" t="n">
         <v>1.63863493154907</v>
@@ -30151,7 +30091,7 @@
         <v>17</v>
       </c>
       <c r="B4" s="2" t="n">
-        <v>1.329529552901964</v>
+        <v>1.302955320947836</v>
       </c>
       <c r="C4" s="2" t="n">
         <v>1.692172411595604</v>
@@ -30240,7 +30180,7 @@
         <v>18</v>
       </c>
       <c r="B5" s="2" t="n">
-        <v>1.352079507132764</v>
+        <v>1.327301633052181</v>
       </c>
       <c r="C5" s="2" t="n">
         <v>2.417655996225958</v>
@@ -30329,7 +30269,7 @@
         <v>19</v>
       </c>
       <c r="B6" s="2" t="n">
-        <v>1.371793132395787</v>
+        <v>1.345516246701627</v>
       </c>
       <c r="C6" s="2" t="n">
         <v>2.519518455302808</v>
@@ -30418,7 +30358,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="2" t="n">
-        <v>1.383116571474982</v>
+        <v>1.357692247608816</v>
       </c>
       <c r="C7" s="2" t="n">
         <v>2.514316460727116</v>
@@ -30507,7 +30447,7 @@
         <v>21</v>
       </c>
       <c r="B8" s="2" t="n">
-        <v>1.383846156705302</v>
+        <v>1.359779788584652</v>
       </c>
       <c r="C8" s="2" t="n">
         <v>2.329935746172843</v>
@@ -30596,7 +30536,7 @@
         <v>22</v>
       </c>
       <c r="B9" s="2" t="n">
-        <v>1.423731572185179</v>
+        <v>1.396082601698886</v>
       </c>
       <c r="C9" s="2" t="n">
         <v>2.532163011454829</v>
@@ -30685,7 +30625,7 @@
         <v>23</v>
       </c>
       <c r="B10" s="2" t="n">
-        <v>1.436399665375948</v>
+        <v>1.412023499129965</v>
       </c>
       <c r="C10" s="2" t="n">
         <v>2.669327690208349</v>
@@ -30774,7 +30714,7 @@
         <v>24</v>
       </c>
       <c r="B11" s="2" t="n">
-        <v>1.460990891858023</v>
+        <v>1.436615511134721</v>
       </c>
       <c r="C11" s="2" t="n">
         <v>2.354573644479819</v>
@@ -30863,7 +30803,7 @@
         <v>25</v>
       </c>
       <c r="B12" s="2" t="n">
-        <v>1.46795854024317</v>
+        <v>1.445440199891408</v>
       </c>
       <c r="C12" s="2" t="n">
         <v>2.497371605334237</v>
@@ -30952,7 +30892,7 @@
         <v>26</v>
       </c>
       <c r="B13" s="2" t="n">
-        <v>1.480114102093799</v>
+        <v>1.456065353360644</v>
       </c>
       <c r="C13" s="2" t="n">
         <v>2.498336100487876</v>
@@ -31041,7 +30981,7 @@
         <v>27</v>
       </c>
       <c r="B14" s="2" t="n">
-        <v>1.490374313295241</v>
+        <v>1.466983802314749</v>
       </c>
       <c r="C14" s="2" t="n">
         <v>2.458793957537256</v>
@@ -31130,7 +31070,7 @@
         <v>28</v>
       </c>
       <c r="B15" s="2" t="n">
-        <v>1.527272449412943</v>
+        <v>1.398231043519793</v>
       </c>
       <c r="C15" s="2" t="n">
         <v>1.843378581226432</v>
@@ -31219,7 +31159,7 @@
         <v>29</v>
       </c>
       <c r="B16" s="2" t="n">
-        <v>1.534678273563117</v>
+        <v>1.413365152017048</v>
       </c>
       <c r="C16" s="2" t="n">
         <v>1.908577927338015</v>
@@ -31308,7 +31248,7 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="n">
-        <v>1.51970925371612</v>
+        <v>1.412157177460249</v>
       </c>
       <c r="C17" s="2" t="n">
         <v>1.954055307869717</v>
@@ -31397,7 +31337,7 @@
         <v>31</v>
       </c>
       <c r="B18" s="2" t="n">
-        <v>1.513486883657263</v>
+        <v>1.404755995954342</v>
       </c>
       <c r="C18" s="2" t="n">
         <v>1.950867239403439</v>
@@ -31486,7 +31426,7 @@
         <v>32</v>
       </c>
       <c r="B19" s="2" t="n">
-        <v>1.508138283616324</v>
+        <v>1.405036080879301</v>
       </c>
       <c r="C19" s="2" t="n">
         <v>1.939257259728649</v>
@@ -31575,7 +31515,7 @@
         <v>33</v>
       </c>
       <c r="B20" s="2" t="n">
-        <v>1.51668490072477</v>
+        <v>1.409787968927327</v>
       </c>
       <c r="C20" s="2" t="n">
         <v>1.949566171938246</v>
@@ -31664,7 +31604,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="2" t="n">
-        <v>1.491574850126353</v>
+        <v>1.391593707554899</v>
       </c>
       <c r="C21" s="2" t="n">
         <v>1.964423652857066</v>
@@ -31753,7 +31693,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="2" t="n">
-        <v>1.482642303046222</v>
+        <v>1.385161160554651</v>
       </c>
       <c r="C22" s="2" t="n">
         <v>1.922752730729869</v>
@@ -31842,7 +31782,7 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="n">
-        <v>1.471836610368537</v>
+        <v>1.37686986282727</v>
       </c>
       <c r="C23" s="2" t="n">
         <v>1.974363843386689</v>
@@ -31931,7 +31871,7 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="n">
-        <v>1.470129329042751</v>
+        <v>1.380398261564001</v>
       </c>
       <c r="C24" s="2" t="n">
         <v>1.972291079111103</v>
@@ -32020,7 +31960,7 @@
         <v>38</v>
       </c>
       <c r="B25" s="2" t="n">
-        <v>1.457546352082093</v>
+        <v>1.374197279419669</v>
       </c>
       <c r="C25" s="2" t="n">
         <v>2.016018360399804</v>
@@ -32109,7 +32049,7 @@
         <v>39</v>
       </c>
       <c r="B26" s="2" t="n">
-        <v>1.442639194566492</v>
+        <v>1.363956602920614</v>
       </c>
       <c r="C26" s="2" t="n">
         <v>2.031106639563319</v>
@@ -32198,7 +32138,7 @@
         <v>40</v>
       </c>
       <c r="B27" s="2" t="n">
-        <v>1.4373349229435</v>
+        <v>1.358385344751612</v>
       </c>
       <c r="C27" s="2" t="n">
         <v>2.034980248810311</v>
@@ -32287,7 +32227,7 @@
         <v>41</v>
       </c>
       <c r="B28" s="2" t="n">
-        <v>1.434014724420784</v>
+        <v>1.354477493932582</v>
       </c>
       <c r="C28" s="2" t="n">
         <v>2.002218597322902</v>
@@ -32376,7 +32316,7 @@
         <v>42</v>
       </c>
       <c r="B29" s="2" t="n">
-        <v>1.431484976148653</v>
+        <v>1.351152520093133</v>
       </c>
       <c r="C29" s="2" t="n">
         <v>1.960055117768049</v>
@@ -32465,7 +32405,7 @@
         <v>43</v>
       </c>
       <c r="B30" s="2" t="n">
-        <v>1.387237825942683</v>
+        <v>1.382879863167882</v>
       </c>
       <c r="C30" s="2" t="n">
         <v>2.235326750766803</v>
@@ -32554,7 +32494,7 @@
         <v>44</v>
       </c>
       <c r="B31" s="2" t="n">
-        <v>1.377565653399793</v>
+        <v>1.376078175645757</v>
       </c>
       <c r="C31" s="2" t="n">
         <v>2.197252328479389</v>
@@ -32643,7 +32583,7 @@
         <v>45</v>
       </c>
       <c r="B32" s="2" t="n">
-        <v>1.350050026952707</v>
+        <v>1.344903803978969</v>
       </c>
       <c r="C32" s="2" t="n">
         <v>2.28408845318026</v>
@@ -32732,7 +32672,7 @@
         <v>46</v>
       </c>
       <c r="B33" s="2" t="n">
-        <v>1.341168216033165</v>
+        <v>1.336695667447359</v>
       </c>
       <c r="C33" s="2" t="n">
         <v>2.283781065572967</v>
@@ -32821,7 +32761,7 @@
         <v>47</v>
       </c>
       <c r="B34" s="2" t="n">
-        <v>1.338508142940064</v>
+        <v>1.329533685374421</v>
       </c>
       <c r="C34" s="2" t="n">
         <v>2.343923052184973</v>
@@ -32910,7 +32850,7 @@
         <v>48</v>
       </c>
       <c r="B35" s="2" t="n">
-        <v>1.320684710739986</v>
+        <v>1.310882553917845</v>
       </c>
       <c r="C35" s="2" t="n">
         <v>2.388442082425819</v>
@@ -32999,7 +32939,7 @@
         <v>49</v>
       </c>
       <c r="B36" s="2" t="n">
-        <v>1.344979380298165</v>
+        <v>1.335836232944653</v>
       </c>
       <c r="C36" s="2" t="n">
         <v>2.26826333274589</v>
@@ -33088,7 +33028,7 @@
         <v>50</v>
       </c>
       <c r="B37" s="2" t="n">
-        <v>1.354067144412742</v>
+        <v>1.346459823447907</v>
       </c>
       <c r="C37" s="2" t="n">
         <v>2.286215083339939</v>
@@ -33177,7 +33117,7 @@
         <v>51</v>
       </c>
       <c r="B38" s="2" t="n">
-        <v>1.368101014181615</v>
+        <v>1.356657667765844</v>
       </c>
       <c r="C38" s="2" t="n">
         <v>2.350859199989248</v>
@@ -33266,7 +33206,7 @@
         <v>52</v>
       </c>
       <c r="B39" s="2" t="n">
-        <v>1.376679728073296</v>
+        <v>1.35540576518469</v>
       </c>
       <c r="C39" s="2" t="n">
         <v>1.965211317623345</v>
@@ -33355,7 +33295,7 @@
         <v>53</v>
       </c>
       <c r="B40" s="2" t="n">
-        <v>1.360177485202416</v>
+        <v>1.341206051894297</v>
       </c>
       <c r="C40" s="2" t="n">
         <v>2.393777972256079</v>
@@ -33444,7 +33384,7 @@
         <v>54</v>
       </c>
       <c r="B41" s="2" t="n">
-        <v>1.367611962911447</v>
+        <v>1.346190591353142</v>
       </c>
       <c r="C41" s="2" t="n">
         <v>2.417158656852886</v>
@@ -33533,7 +33473,7 @@
         <v>55</v>
       </c>
       <c r="B42" s="2" t="n">
-        <v>1.373177616212252</v>
+        <v>1.349092377793051</v>
       </c>
       <c r="C42" s="2" t="n">
         <v>2.527187702121401</v>
@@ -33622,7 +33562,7 @@
         <v>56</v>
       </c>
       <c r="B43" s="2" t="n">
-        <v>1.373415464608734</v>
+        <v>1.349030250800252</v>
       </c>
       <c r="C43" s="2" t="n">
         <v>2.296637608897794</v>
@@ -33711,7 +33651,7 @@
         <v>57</v>
       </c>
       <c r="B44" s="2" t="n">
-        <v>1.390069288736142</v>
+        <v>1.364316114354117</v>
       </c>
       <c r="C44" s="2" t="n">
         <v>2.445704128489766</v>
@@ -33800,7 +33740,7 @@
         <v>58</v>
       </c>
       <c r="B45" s="2" t="n">
-        <v>1.383691763834881</v>
+        <v>1.352725822068734</v>
       </c>
       <c r="C45" s="2" t="n">
         <v>2.601607389158005</v>
@@ -33889,7 +33829,7 @@
         <v>59</v>
       </c>
       <c r="B46" s="2" t="n">
-        <v>1.370340696711874</v>
+        <v>1.33495545465929</v>
       </c>
       <c r="C46" s="2" t="n">
         <v>2.562930166749435</v>
@@ -33978,7 +33918,7 @@
         <v>60</v>
       </c>
       <c r="B47" s="2" t="n">
-        <v>1.378809510587389</v>
+        <v>1.342171255044558</v>
       </c>
       <c r="C47" s="2" t="n">
         <v>2.676331013557879</v>
@@ -34067,7 +34007,7 @@
         <v>61</v>
       </c>
       <c r="B48" s="2" t="n">
-        <v>1.38837894370121</v>
+        <v>1.349346726576468</v>
       </c>
       <c r="C48" s="2" t="n">
         <v>2.459393578332217</v>
@@ -34156,7 +34096,7 @@
         <v>62</v>
       </c>
       <c r="B49" s="2" t="n">
-        <v>1.390923588152326</v>
+        <v>1.35423506288076</v>
       </c>
       <c r="C49" s="2" t="n">
         <v>2.275202879277714</v>
@@ -34245,7 +34185,7 @@
         <v>63</v>
       </c>
       <c r="B50" s="2" t="n">
-        <v>1.403402279330788</v>
+        <v>1.370758252918534</v>
       </c>
       <c r="C50" s="2" t="n">
         <v>2.443849121770752</v>
@@ -34334,7 +34274,7 @@
         <v>64</v>
       </c>
       <c r="B51" s="2" t="n">
-        <v>1.405956491491264</v>
+        <v>1.374921097112891</v>
       </c>
       <c r="C51" s="2" t="n">
         <v>2.517043605851441</v>
@@ -34423,7 +34363,7 @@
         <v>65</v>
       </c>
       <c r="B52" s="2" t="n">
-        <v>1.404057324431788</v>
+        <v>1.372443039115742</v>
       </c>
       <c r="C52" s="2" t="n">
         <v>2.495384716764941</v>
@@ -34512,7 +34452,7 @@
         <v>66</v>
       </c>
       <c r="B53" s="2" t="n">
-        <v>1.40582234193943</v>
+        <v>1.370961484042588</v>
       </c>
       <c r="C53" s="2" t="n">
         <v>2.531327685273377</v>
@@ -34601,7 +34541,7 @@
         <v>67</v>
       </c>
       <c r="B54" s="2" t="n">
-        <v>1.421076373206363</v>
+        <v>1.383780416782848</v>
       </c>
       <c r="C54" s="2" t="n">
         <v>2.442002113685207</v>
